--- a/calibration.xlsx
+++ b/calibration.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ihzas\Documents\PlatformIO\Projects\solar-tracker-bap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB25C519-0A95-4CDC-A51A-049FCE7D7DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A81AFD-05AA-4EDD-852E-8A7079467335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{412789F5-83FC-4300-98EA-ED3E881853AD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{412789F5-83FC-4300-98EA-ED3E881853AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>App</t>
   </si>
@@ -54,6 +55,30 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>APP</t>
+  </si>
+  <si>
+    <t>NANO</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>roll</t>
+  </si>
+  <si>
+    <t>pitch</t>
+  </si>
+  <si>
+    <t>LDR6</t>
+  </si>
+  <si>
+    <t>NORTH</t>
   </si>
 </sst>
 </file>
@@ -1282,6 +1307,840 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>roll</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$4:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>-1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>34.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>36.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>39.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44.7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>47.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>50.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>59.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C0F4-4940-ADB7-5D995E653ABD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>x</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$4:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.97</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.99</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.01</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.02</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.02</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.06</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24.02</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27.02</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>33.049999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>35.01</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>38.03</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42.96</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>46.01</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>48.98</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>55.02</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>57.96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C0F4-4940-ADB7-5D995E653ABD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="479944703"/>
+        <c:axId val="479923103"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="479944703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="479923103"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="479923103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="479944703"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$4:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A810-4237-BAC1-10548E44A923}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$4:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.94</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.96</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.96</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.98</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24.03</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A810-4237-BAC1-10548E44A923}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="694607535"/>
+        <c:axId val="694594095"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="694607535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="694594095"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="694594095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="694607535"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1362,6 +2221,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -1879,6 +2818,1038 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2451,6 +4422,83 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA707A3B-A472-8079-FF60-CF7ED83AE7EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC60CC91-3308-88E7-CDCB-3595A83B9B52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19CBFB00-23AD-C8CA-70B5-AB82ED21D830}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2790,7 +4838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97223D41-D025-4DDD-A5FE-C9BA0A7D8B4D}">
   <dimension ref="B2:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
+    <sheetView zoomScale="106" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:E19"/>
     </sheetView>
   </sheetViews>
@@ -3104,4 +5152,276 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B49BD2-EAE6-45E2-84BC-67323D698AA5}">
+  <dimension ref="B2:H24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="C4">
+        <v>0.3</v>
+      </c>
+      <c r="D4">
+        <v>0.02</v>
+      </c>
+      <c r="E4">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>2.1</v>
+      </c>
+      <c r="C5">
+        <v>2.7</v>
+      </c>
+      <c r="D5">
+        <v>2.98</v>
+      </c>
+      <c r="E5">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>5.3</v>
+      </c>
+      <c r="C6">
+        <v>5.9</v>
+      </c>
+      <c r="D6">
+        <v>5.97</v>
+      </c>
+      <c r="E6">
+        <v>5.95</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>8.5</v>
+      </c>
+      <c r="C7">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="D7">
+        <v>8.99</v>
+      </c>
+      <c r="E7">
+        <v>8.94</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>11.7</v>
+      </c>
+      <c r="C8">
+        <v>11.8</v>
+      </c>
+      <c r="D8">
+        <v>12.01</v>
+      </c>
+      <c r="E8">
+        <v>11.96</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>14.9</v>
+      </c>
+      <c r="C9">
+        <v>14.9</v>
+      </c>
+      <c r="D9">
+        <v>15.02</v>
+      </c>
+      <c r="E9">
+        <v>15.01</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>18.2</v>
+      </c>
+      <c r="C10">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="D10">
+        <v>18.02</v>
+      </c>
+      <c r="E10">
+        <v>17.96</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>21.5</v>
+      </c>
+      <c r="C11">
+        <v>20.9</v>
+      </c>
+      <c r="D11">
+        <v>21.06</v>
+      </c>
+      <c r="E11">
+        <v>20.98</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>24.6</v>
+      </c>
+      <c r="C12">
+        <v>23.8</v>
+      </c>
+      <c r="D12">
+        <v>24.02</v>
+      </c>
+      <c r="E12">
+        <v>24.03</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>27.7</v>
+      </c>
+      <c r="C13">
+        <v>26.8</v>
+      </c>
+      <c r="D13">
+        <v>27.02</v>
+      </c>
+      <c r="E13">
+        <v>26.99</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>30.9</v>
+      </c>
+      <c r="D14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>34.1</v>
+      </c>
+      <c r="D15">
+        <v>33.049999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="D16">
+        <v>35.01</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>39.4</v>
+      </c>
+      <c r="D17">
+        <v>38.03</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>41.5</v>
+      </c>
+      <c r="D18">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>44.7</v>
+      </c>
+      <c r="D19">
+        <v>42.96</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>47.7</v>
+      </c>
+      <c r="D20">
+        <v>46.01</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>50.8</v>
+      </c>
+      <c r="D21">
+        <v>48.98</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>54</v>
+      </c>
+      <c r="D22">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>57</v>
+      </c>
+      <c r="D23">
+        <v>55.02</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>59.9</v>
+      </c>
+      <c r="D24">
+        <v>57.96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/calibration.xlsx
+++ b/calibration.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ihzas\Documents\PlatformIO\Projects\solar-tracker-bap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A81AFD-05AA-4EDD-852E-8A7079467335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC25E72-B80D-4C88-86A3-3E3F9942038E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{412789F5-83FC-4300-98EA-ED3E881853AD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{412789F5-83FC-4300-98EA-ED3E881853AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>App</t>
   </si>
@@ -5158,8 +5159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B49BD2-EAE6-45E2-84BC-67323D698AA5}">
   <dimension ref="B2:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5424,4 +5425,281 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E85246-7F43-497E-8FBD-B2CFDEEA594A}">
+  <dimension ref="B3:E25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>0.7</v>
+      </c>
+      <c r="C5">
+        <v>-0.8</v>
+      </c>
+      <c r="D5">
+        <v>0.11</v>
+      </c>
+      <c r="E5">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>3.5</v>
+      </c>
+      <c r="C6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D6">
+        <v>2.76</v>
+      </c>
+      <c r="E6">
+        <v>-2.8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>6.9</v>
+      </c>
+      <c r="C7">
+        <v>5.6</v>
+      </c>
+      <c r="D7">
+        <v>5.78</v>
+      </c>
+      <c r="E7">
+        <v>-5.9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>10.5</v>
+      </c>
+      <c r="C8">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>9.15</v>
+      </c>
+      <c r="E8">
+        <v>-9.1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>13.1</v>
+      </c>
+      <c r="C9">
+        <v>11.5</v>
+      </c>
+      <c r="D9">
+        <v>11.8</v>
+      </c>
+      <c r="E9">
+        <v>-11.8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>16.7</v>
+      </c>
+      <c r="C10">
+        <v>14.5</v>
+      </c>
+      <c r="D10">
+        <v>15.15</v>
+      </c>
+      <c r="E10">
+        <v>-14.8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>19.8</v>
+      </c>
+      <c r="C11">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="D11">
+        <v>18.2</v>
+      </c>
+      <c r="E11">
+        <v>-17.899999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>22.9</v>
+      </c>
+      <c r="C12">
+        <v>20.6</v>
+      </c>
+      <c r="D12">
+        <v>21.2</v>
+      </c>
+      <c r="E12">
+        <v>-20.8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>25.9</v>
+      </c>
+      <c r="C13">
+        <v>23.8</v>
+      </c>
+      <c r="D13">
+        <v>24.15</v>
+      </c>
+      <c r="E13">
+        <v>-24</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>28.4</v>
+      </c>
+      <c r="C14">
+        <v>26.9</v>
+      </c>
+      <c r="D14">
+        <v>26.8</v>
+      </c>
+      <c r="E14">
+        <v>27.1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>31.6</v>
+      </c>
+      <c r="C15">
+        <v>29.4</v>
+      </c>
+      <c r="D15">
+        <v>29.8</v>
+      </c>
+      <c r="E15">
+        <v>29.8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>35</v>
+      </c>
+      <c r="C16">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="D16">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="E16">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="D17">
+        <v>35.9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>41.4</v>
+      </c>
+      <c r="D18">
+        <v>38.9</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>44.4</v>
+      </c>
+      <c r="D19">
+        <v>41.8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>46.5</v>
+      </c>
+      <c r="D20">
+        <v>44.8</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>49.7</v>
+      </c>
+      <c r="D21">
+        <v>47.8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>53.2</v>
+      </c>
+      <c r="D22">
+        <v>51.2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>55.5</v>
+      </c>
+      <c r="D23">
+        <v>53.8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>59</v>
+      </c>
+      <c r="D24">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>61.5</v>
+      </c>
+      <c r="D25">
+        <v>59.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>